--- a/ASEK/13.xlsx
+++ b/ASEK/13.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carllavo/Desktop/MEX/mexscal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carllavo/Desktop/MEX/mexscal/ASEK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8028AB54-F92C-EE40-941A-5AE24B221708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D364F3-26AA-5743-B81F-4A854CB6BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16800" xr2:uid="{1898CD67-C86D-0844-898F-804F2C82DCB0}"/>
   </bookViews>
@@ -36,170 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="81">
-  <si>
-    <r>
-      <t xml:space="preserve">Trafikverket. (2019). </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Georgia"/>
-        <family val="1"/>
-      </rPr>
-      <t>Underlag för reviderade ASEK-värden för luftföroreningar; Slutrapport från projektet REVSEK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Georgia"/>
-        <family val="1"/>
-      </rPr>
-      <t>. Författad av: Söderqvist T., Wallström, J., Bennet, C., Andersson, C., Kriit, H., Jansson, S-A., Orru, H., Sommar, J. Forsberg, B., Tidblad, J., Andersson, J. och Svensson M. Trafikverkets Rapport, maj 2019.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trafikverket. (2017). </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Georgia"/>
-        <family val="1"/>
-      </rPr>
-      <t>Effektkedjor och skadekostnader som underlag för revidering av ASEK-värden för luftföroreningar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Georgia"/>
-        <family val="1"/>
-      </rPr>
-      <t>. Författad av: Söderqvist, T., Wallström, J., Barregård, L., Johansson, N., Molnar, P., Svensson, M., Nordänger, S., Tidblad, J. och Staaf, H. Trafikverkets Rapport, maj 2017.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trafikverket. (2015). </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Georgia"/>
-        <family val="1"/>
-      </rPr>
-      <t>Utveckling av ASEK:s kalkylvärden för luftföroreningar: En förstudie</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Georgia"/>
-        <family val="1"/>
-      </rPr>
-      <t>. L. Barregård, H. Staaf och T. Söderqvist, Trafikverkets PM, Nov 2015.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Schucht, S. m.fl. (2021). ”Costs of air pollution from European industrial facilities 2008–2017.”</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ETC/ATNI Report 04/2020 ETC/ATNI Report 04/2020: Costs of air pollution from European industrial facilities 2008–2017. — Eionet Portal (europa.eu).</t>
-    </r>
-  </si>
-  <si>
-    <t>Forsberg, B., Lövenheim, H. B., Kriit, H., Sommar, J., Strömgren, M. och Johansson, C. (2021). Bättre metoder för att beskriva hälsovinster av minskad exponering för luftförorening för luftföroreningar från vägtrafik. Trafikverket, TRV 2020/25123.</t>
-  </si>
-  <si>
-    <t>Referenser</t>
-  </si>
-  <si>
-    <t>Dieseltåg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tätortsfaktorer </t>
-  </si>
-  <si>
-    <t>Tabell 13.8. Andel av utsläpp från tågtrafik som sker i tätortsmiljö</t>
-  </si>
-  <si>
-    <t>Motorvagn, genomsnitt</t>
-  </si>
-  <si>
-    <t>Lok, genomsnitt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emissioner 2045 </t>
-  </si>
-  <si>
-    <t>Emissioner 2019</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>Fordon</t>
   </si>
   <si>
-    <t>Genomsnittlig marginalkostnad - Tågtrafik</t>
-  </si>
-  <si>
-    <t>Tabell 13.7. Genomsnittlig marginalkostnad för luftföroreningar av dieseldiven tågtrafik</t>
-  </si>
-  <si>
-    <t>Motorvagnar steg V</t>
-  </si>
-  <si>
-    <t>Motorvagnar steg IIIB</t>
-  </si>
-  <si>
-    <t>Motorvagnar steg IIIA</t>
-  </si>
-  <si>
-    <t>Motorvagnar oreglerade</t>
-  </si>
-  <si>
-    <t>Lok steg IIIB + V</t>
-  </si>
-  <si>
-    <t>Lok steg IIIA</t>
-  </si>
-  <si>
-    <t>Lok oreglerade</t>
-  </si>
-  <si>
     <t>Tätorter (lokala och regionala effekter)</t>
   </si>
   <si>
     <t>Landsbygd (regionala effekter)</t>
-  </si>
-  <si>
-    <t>Marginalkostnad - Tågtrafik</t>
-  </si>
-  <si>
-    <t>Tabell 13.6. Marginalkostnader för luftföroreningar av dieseldriven tågtrafik</t>
   </si>
   <si>
     <t xml:space="preserve">Tung lastbil HGV 60 </t>
@@ -323,27 +168,6 @@
     <t>Tabell 13.4. Marginalkostnader för vägtrafikens luftföroreningar</t>
   </si>
   <si>
-    <t>NH3 (Ammoniak)- Naturmiljöeffketer - övergödning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  NOx - Övergödning </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  NOx - Hälsa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>NOx - Totalt</t>
-  </si>
-  <si>
-    <t>Skadekostnad</t>
-  </si>
-  <si>
-    <t>Tabell 13.3. Värdering av luftföroreningar från sjöfart</t>
-  </si>
-  <si>
     <t>Storstadskärna</t>
   </si>
   <si>
@@ -420,12 +244,6 @@
   </si>
   <si>
     <t>Tabell 13.1. Värdering av luftföroreningar från vägtrafik, lokala och regionala effekter</t>
-  </si>
-  <si>
-    <t>LUFTFÖRORENINGAR</t>
-  </si>
-  <si>
-    <t>ASEK 8.0</t>
   </si>
 </sst>
 </file>
@@ -437,7 +255,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,44 +292,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Georgia"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Georgia"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -543,14 +326,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -737,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -745,57 +520,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -808,83 +547,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -892,28 +565,28 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -925,43 +598,40 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -979,28 +649,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1054,56 +709,62 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1126,9 +787,9 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>138110</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4557715" cy="1642373"/>
@@ -1393,9 +1054,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>131234</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>245798</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4562475" cy="953466"/>
@@ -1546,9 +1207,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4467225" cy="1470146"/>
@@ -1748,9 +1409,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>257175</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3143251" cy="1986826"/>
@@ -1983,215 +1644,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4438650" cy="609013"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="textruta 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CEB6314-28D4-3D4E-BAE5-906D6E274280}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4038600" y="13335000"/>
-          <a:ext cx="4438650" cy="609013"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="1100" b="1"/>
-            <a:t>Noter: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="1100" b="0"/>
-            <a:t>Kr/liter</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="1100" b="0" baseline="0"/>
-            <a:t> diesel, i 2019 års penningvärde.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="sv-SE" sz="1100" b="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="1100" b="1"/>
-            <a:t>Källor: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="1100" b="0"/>
-            <a:t>Beräknat</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4467225" cy="609013"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="textruta 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC85A879-BA97-054E-814F-93FA014A02C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2743199" y="15621001"/>
-          <a:ext cx="4467225" cy="609013"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="1100" b="1"/>
-            <a:t>Noter: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="1100" b="0"/>
-            <a:t>Kr/liter</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="1100" b="0" baseline="0"/>
-            <a:t> diesel, i 2019 års penningvärde.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="sv-SE" sz="1100" b="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="1100" b="1"/>
-            <a:t>Källor: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="1100" b="0"/>
-            <a:t>Beräknat</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>138110</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4557715" cy="1642373"/>
@@ -2501,88 +1956,6 @@
         </a:p>
         <a:p>
           <a:endParaRPr lang="sv-SE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>229722</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3763338" cy="609013"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="textruta 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAF8DFCE-7C45-C246-93F6-D676B9D91513}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2733675" y="16955622"/>
-          <a:ext cx="3763338" cy="609013"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="1100" b="1"/>
-            <a:t>Noter: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="1100" b="0"/>
-            <a:t>Andel av dieseldriven tågtrafik i tätortsmiljö</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="1100" b="0"/>
-            <a:t>Används</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="1100" b="0" baseline="0"/>
-            <a:t> i Bansek. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="sv-SE" sz="1100" b="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2911,150 +2284,187 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:X100"/>
+  <dimension ref="A1:W58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="98" zoomScaleNormal="98" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="60.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="1" customWidth="1"/>
-    <col min="6" max="7" width="22" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="34.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="1"/>
-    <col min="12" max="12" width="34.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.5" style="1"/>
+    <col min="1" max="1" width="60.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
+    <col min="5" max="6" width="22" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="34.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="1"/>
+    <col min="11" max="11" width="34.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="122" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="122" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="90"/>
-      <c r="D6" s="89"/>
-    </row>
-    <row r="7" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
-      <c r="C7" s="88">
+    <row r="1" spans="1:23" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="49"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="16">
         <v>2019</v>
       </c>
-      <c r="D7" s="9">
+      <c r="C3" s="4">
         <v>2045</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="121" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="120"/>
-      <c r="D8" s="119"/>
-    </row>
-    <row r="9" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="118" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="117">
+    <row r="4" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="80"/>
+      <c r="C4" s="79"/>
+    </row>
+    <row r="5" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="77">
         <v>7432.9453441295564</v>
       </c>
-      <c r="D9" s="116">
+      <c r="C5" s="76">
         <v>10006.311169224307</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="114">
+    <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="74">
         <v>1512.9470310391366</v>
       </c>
-      <c r="D10" s="113">
+      <c r="C6" s="73">
         <v>2036.7456067853732</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="115">
+    <row r="7" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="75">
         <v>137.06140350877197</v>
       </c>
-      <c r="D11" s="84">
+      <c r="C7" s="48">
         <v>184.51353929066102</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="114">
+    <row r="8" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="74">
         <v>336.3275978407558</v>
       </c>
-      <c r="D12" s="113">
+      <c r="C8" s="73">
         <v>452.76783872092966</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="112" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="110"/>
-    </row>
-    <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="83">
+    <row r="9" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="71"/>
+      <c r="C9" s="70"/>
+    </row>
+    <row r="10" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="47">
         <v>2.1086369770580302</v>
       </c>
-      <c r="D14" s="109">
+      <c r="C10" s="69">
         <v>2.8386698352409385</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="108">
+    <row r="11" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="68">
         <v>1.0543184885290151</v>
       </c>
-      <c r="D15" s="81">
+      <c r="C11" s="46">
         <v>1.4193349176204693</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="105" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="47">
+        <v>0.52715924426450755</v>
+      </c>
+      <c r="C12" s="69">
+        <v>0.70966745881023463</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="68">
+        <v>1.0543184885290151</v>
+      </c>
+      <c r="C13" s="46">
+        <v>1.4193349176204693</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="67">
+        <v>1.5814777327935228</v>
+      </c>
+      <c r="C14" s="66">
+        <v>2.1290023764307038</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="83">
-        <v>0.52715924426450755</v>
-      </c>
-      <c r="D16" s="109">
-        <v>0.70966745881023463</v>
-      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -3062,8 +2472,8 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -3074,866 +2484,461 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-    </row>
-    <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="108">
-        <v>1.0543184885290151</v>
-      </c>
-      <c r="D17" s="81">
-        <v>1.4193349176204693</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="107">
-        <v>1.5814777327935228</v>
-      </c>
-      <c r="D18" s="106">
-        <v>2.1290023764307038</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-    </row>
-    <row r="21" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="103"/>
-    </row>
-    <row r="23" spans="1:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="102" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="102" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="101">
+    </row>
+    <row r="17" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="63"/>
+    </row>
+    <row r="19" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="61">
         <v>5.4263565891472867E-2</v>
       </c>
-      <c r="D24" s="101">
+      <c r="C20" s="61">
         <v>3.8139534883720932E-2</v>
       </c>
-      <c r="E24" s="101">
+      <c r="D20" s="61">
         <v>5.1227321237993596E-2</v>
       </c>
-      <c r="F24" s="100">
+      <c r="E20" s="60">
         <v>5.2213393870601588E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="97" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="96">
+    <row r="21" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="56">
         <v>0.46068660022148394</v>
       </c>
-      <c r="D25" s="96">
+      <c r="C21" s="56">
         <v>0.48930232558139536</v>
       </c>
-      <c r="E25" s="96">
+      <c r="D21" s="56">
         <v>0.4631803628601921</v>
       </c>
-      <c r="F25" s="95">
+      <c r="E21" s="55">
         <v>0.44267877412031781</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="99">
+    <row r="22" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="59">
         <v>1</v>
       </c>
-      <c r="D26" s="99">
+      <c r="C22" s="59">
         <v>1</v>
       </c>
-      <c r="E26" s="99">
+      <c r="D22" s="59">
         <v>1</v>
       </c>
-      <c r="F26" s="98">
+      <c r="E22" s="58">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="97" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="96">
+    <row r="23" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="56">
         <v>1.4584717607973421</v>
       </c>
-      <c r="D27" s="96">
+      <c r="C23" s="56">
         <v>1.1888372093023256</v>
       </c>
-      <c r="E27" s="96">
+      <c r="D23" s="56">
         <v>1.4375667022411953</v>
       </c>
-      <c r="F27" s="95">
+      <c r="E23" s="55">
         <v>1.4392735527809308</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="94">
+    <row r="24" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="54">
         <v>1.682170542635659</v>
       </c>
-      <c r="D28" s="94">
+      <c r="C24" s="54">
         <v>1.2511627906976743</v>
       </c>
-      <c r="E28" s="94">
+      <c r="D24" s="54">
         <v>1.5645677694770543</v>
       </c>
-      <c r="F28" s="93">
+      <c r="E24" s="53">
         <v>1.6844494892167992</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="92">
+    <row r="25" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="52">
         <v>4.5946843853820596</v>
       </c>
-      <c r="D29" s="92">
+      <c r="C25" s="52">
         <v>3.8669767441860463</v>
       </c>
-      <c r="E29" s="92">
+      <c r="D25" s="52">
         <v>4.4215581643543223</v>
       </c>
-      <c r="F29" s="91">
+      <c r="E25" s="51">
         <v>4.5777525539160049</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="90"/>
-      <c r="D33" s="89"/>
-    </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="11"/>
-      <c r="C34" s="88">
+    <row r="28" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="82">
         <v>2019</v>
       </c>
-      <c r="D34" s="9">
+      <c r="C29" s="83"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="44"/>
+    </row>
+    <row r="30" spans="1:6" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="44"/>
+    </row>
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="39">
+        <v>1.1013274702231723E-3</v>
+      </c>
+      <c r="C31" s="39">
+        <v>0.27823041945437954</v>
+      </c>
+      <c r="D31" s="38">
+        <v>9.5325218744836335E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="36">
+        <v>3.9819089461985864E-4</v>
+      </c>
+      <c r="C32" s="36">
+        <v>0.23915725071801552</v>
+      </c>
+      <c r="D32" s="20">
+        <v>8.1576271234574393E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="34">
+        <v>1.9515747938484941E-3</v>
+      </c>
+      <c r="C33" s="34">
+        <v>0.32627947671144397</v>
+      </c>
+      <c r="D33" s="33">
+        <v>0.11222306144583097</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="36">
+        <v>3.5528909614041832E-3</v>
+      </c>
+      <c r="C34" s="36">
+        <v>0.4462695819554191</v>
+      </c>
+      <c r="D34" s="20">
+        <v>0.15407656589936924</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="34">
+        <v>6.6821191478027677E-3</v>
+      </c>
+      <c r="C35" s="34">
+        <v>1.3539493738182227</v>
+      </c>
+      <c r="D35" s="33">
+        <v>0.43780764064233713</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="30">
+        <v>5.7660881577976794E-3</v>
+      </c>
+      <c r="C36" s="30">
+        <v>1.3657536511205444</v>
+      </c>
+      <c r="D36" s="29">
+        <v>0.27776360075034706</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="82">
         <v>2045</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="87">
-        <v>70</v>
-      </c>
-      <c r="D35" s="86">
-        <v>94.234754786526366</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="85">
-        <v>68</v>
-      </c>
-      <c r="D36" s="84">
-        <v>91.54233322119704</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="83">
-        <v>2.1086369770580302</v>
-      </c>
-      <c r="D37" s="82">
-        <v>2.8386698352409385</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="15">
-        <v>8.4345479082321209</v>
-      </c>
-      <c r="D38" s="81">
-        <v>11.354679340963754</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="50">
+      <c r="C37" s="83"/>
+      <c r="D37" s="84"/>
+    </row>
+    <row r="38" spans="1:4" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="40">
+        <v>1.6980528198335639E-5</v>
+      </c>
+      <c r="C39" s="39">
+        <v>0.27543577308517303</v>
+      </c>
+      <c r="D39" s="38">
+        <v>9.3659369997569741E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="37">
+        <v>2.1679330728553183E-4</v>
+      </c>
+      <c r="C40" s="36">
+        <v>0.29946365715339074</v>
+      </c>
+      <c r="D40" s="20">
+        <v>0.10196072701496131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="35">
+        <v>8.9940353694795583E-4</v>
+      </c>
+      <c r="C41" s="34">
+        <v>0.33621690460254727</v>
+      </c>
+      <c r="D41" s="33">
+        <v>0.11490735389925173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="37">
+        <v>6.8770357132479047E-5</v>
+      </c>
+      <c r="C42" s="36">
+        <v>0.28277765613698475</v>
+      </c>
+      <c r="D42" s="20">
+        <v>9.6189791522282256E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="35">
+        <v>7.0913137932650976E-4</v>
+      </c>
+      <c r="C43" s="34">
+        <v>0.9359986224092478</v>
+      </c>
+      <c r="D43" s="33">
+        <v>0.30000176850890131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="31">
+        <v>1.1391415650548334E-3</v>
+      </c>
+      <c r="C44" s="30">
+        <v>0.94908935401304528</v>
+      </c>
+      <c r="D44" s="29">
+        <v>0.19072918405465292</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="83"/>
+      <c r="C48" s="84"/>
+    </row>
+    <row r="49" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="27">
         <v>2019</v>
       </c>
-      <c r="D42" s="63"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="79"/>
-    </row>
-    <row r="43" spans="1:7" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" s="79"/>
-    </row>
-    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="74">
-        <v>1.1013274702231723E-3</v>
-      </c>
-      <c r="D44" s="74">
-        <v>0.27823041945437954</v>
-      </c>
-      <c r="E44" s="73">
-        <v>9.5325218744836335E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="71">
-        <v>3.9819089461985864E-4</v>
-      </c>
-      <c r="D45" s="71">
-        <v>0.23915725071801552</v>
-      </c>
-      <c r="E45" s="54">
-        <v>8.1576271234574393E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46" s="69">
-        <v>1.9515747938484941E-3</v>
-      </c>
-      <c r="D46" s="69">
-        <v>0.32627947671144397</v>
-      </c>
-      <c r="E46" s="68">
-        <v>0.11222306144583097</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" s="71">
-        <v>3.5528909614041832E-3</v>
-      </c>
-      <c r="D47" s="71">
-        <v>0.4462695819554191</v>
-      </c>
-      <c r="E47" s="54">
-        <v>0.15407656589936924</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="69">
-        <v>6.6821191478027677E-3</v>
-      </c>
-      <c r="D48" s="69">
-        <v>1.3539493738182227</v>
-      </c>
-      <c r="E48" s="68">
-        <v>0.43780764064233713</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49" s="65">
-        <v>5.7660881577976794E-3</v>
-      </c>
-      <c r="D49" s="65">
-        <v>1.3657536511205444</v>
-      </c>
-      <c r="E49" s="64">
-        <v>0.27776360075034706</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C50" s="50">
+      <c r="C49" s="26">
         <v>2045</v>
       </c>
-      <c r="D50" s="63"/>
-      <c r="E50" s="49"/>
-    </row>
-    <row r="51" spans="1:5" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="E51" s="76" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52" s="75">
-        <v>1.6980528198335639E-5</v>
-      </c>
-      <c r="D52" s="74">
-        <v>0.27543577308517303</v>
-      </c>
-      <c r="E52" s="73">
-        <v>9.3659369997569741E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" s="72">
-        <v>2.1679330728553183E-4</v>
-      </c>
-      <c r="D53" s="71">
-        <v>0.29946365715339074</v>
-      </c>
-      <c r="E53" s="54">
-        <v>0.10196072701496131</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C54" s="70">
-        <v>8.9940353694795583E-4</v>
-      </c>
-      <c r="D54" s="69">
-        <v>0.33621690460254727</v>
-      </c>
-      <c r="E54" s="68">
-        <v>0.11490735389925173</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C55" s="72">
-        <v>6.8770357132479047E-5</v>
-      </c>
-      <c r="D55" s="71">
-        <v>0.28277765613698475</v>
-      </c>
-      <c r="E55" s="54">
-        <v>9.6189791522282256E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C56" s="70">
-        <v>7.0913137932650976E-4</v>
-      </c>
-      <c r="D56" s="69">
-        <v>0.9359986224092478</v>
-      </c>
-      <c r="E56" s="68">
-        <v>0.30000176850890131</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="C57" s="66">
-        <v>1.1391415650548334E-3</v>
-      </c>
-      <c r="D57" s="65">
-        <v>0.94908935401304528</v>
-      </c>
-      <c r="E57" s="64">
-        <v>0.19072918405465292</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C61" s="63"/>
-      <c r="D61" s="49"/>
-    </row>
-    <row r="62" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" s="61">
-        <v>2019</v>
-      </c>
-      <c r="D62" s="60">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="17"/>
-      <c r="B63" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63" s="59">
+    </row>
+    <row r="50" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="25">
         <v>0.16246499662618089</v>
       </c>
-      <c r="D63" s="58">
+      <c r="C50" s="24">
         <v>0.10470461862942551</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="17"/>
-      <c r="B64" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C64" s="55">
+    <row r="51" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="21">
         <v>0.39531376518218636</v>
       </c>
-      <c r="D64" s="54">
+      <c r="C51" s="20">
         <v>0.3013752990420967</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="17"/>
-      <c r="B65" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C65" s="57">
+    <row r="52" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="23">
         <v>0.43067476383265868</v>
       </c>
-      <c r="D65" s="56">
+      <c r="C52" s="22">
         <v>0.30468510485426165</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="17"/>
-      <c r="B66" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C66" s="55">
+    <row r="53" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="21">
         <v>0.24993041497975713</v>
       </c>
-      <c r="D66" s="54">
+      <c r="C53" s="20">
         <v>0.1946130176092763</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="17"/>
-      <c r="B67" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C67" s="53">
+    <row r="54" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="19">
         <v>0.24319964574898792</v>
       </c>
-      <c r="D67" s="52">
+      <c r="C54" s="18">
         <v>0.19750914768737191</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="13"/>
-    </row>
-    <row r="69" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="13"/>
-    </row>
-    <row r="70" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C71" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="D71" s="49"/>
-      <c r="E71" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="F71" s="49"/>
-    </row>
-    <row r="72" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C72" s="47">
-        <v>2019</v>
-      </c>
-      <c r="D72" s="46">
-        <v>2045</v>
-      </c>
-      <c r="E72" s="47">
-        <v>2019</v>
-      </c>
-      <c r="F72" s="46">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C73" s="44">
-        <v>0.16257591093117416</v>
-      </c>
-      <c r="D73" s="44">
-        <v>0.21886144429707635</v>
-      </c>
-      <c r="E73" s="43">
-        <v>16.127066464237522</v>
-      </c>
-      <c r="F73" s="42">
-        <v>21.710430766906221</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C74" s="41">
-        <v>7.5278340080971687E-2</v>
-      </c>
-      <c r="D74" s="41">
-        <v>0.10134051311810151</v>
-      </c>
-      <c r="E74" s="40">
-        <v>9.2836960188933908</v>
-      </c>
-      <c r="F74" s="39">
-        <v>12.497811683615282</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C75" s="38">
-        <v>4.6179149797570866E-2</v>
-      </c>
-      <c r="D75" s="38">
-        <v>6.2166869391776555E-2</v>
-      </c>
-      <c r="E75" s="37">
-        <v>2.7905701754385976</v>
-      </c>
-      <c r="F75" s="36">
-        <v>3.7566956599578578</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C76" s="30">
-        <v>0.10311234817813769</v>
-      </c>
-      <c r="D76" s="30">
-        <v>0.13881095494328191</v>
-      </c>
-      <c r="E76" s="29">
-        <v>18.693910256410259</v>
-      </c>
-      <c r="F76" s="28">
-        <v>25.165943557345017</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C77" s="34">
-        <v>4.3648785425101234E-2</v>
-      </c>
-      <c r="D77" s="34">
-        <v>5.8760465589487429E-2</v>
-      </c>
-      <c r="E77" s="33">
-        <v>7.8814524291497996</v>
-      </c>
-      <c r="F77" s="32">
-        <v>10.610096243180056</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C78" s="30">
-        <v>2.4038461538461547E-2</v>
-      </c>
-      <c r="D78" s="30">
-        <v>3.23608361217467E-2</v>
-      </c>
-      <c r="E78" s="29">
-        <v>1.7346702091767887</v>
-      </c>
-      <c r="F78" s="28">
-        <v>2.3352317399609577</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C79" s="26">
-        <v>2.4038461538461547E-2</v>
-      </c>
-      <c r="D79" s="26">
-        <v>3.23608361217467E-2</v>
-      </c>
-      <c r="E79" s="25">
-        <v>1.511681848852902</v>
-      </c>
-      <c r="F79" s="24">
-        <v>2.0350424048842286</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C83" s="10"/>
-      <c r="D83" s="9"/>
-    </row>
-    <row r="84" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C84" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="17"/>
-      <c r="B85" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C85" s="19">
-        <v>0.93874409581646456</v>
-      </c>
-      <c r="D85" s="18">
-        <v>0.35772917263706305</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="17"/>
-      <c r="B86" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C86" s="15">
-        <v>0.95709345479082353</v>
-      </c>
-      <c r="D86" s="14">
-        <v>0.19977990566458675</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="13"/>
-    </row>
-    <row r="88" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="13"/>
-    </row>
-    <row r="89" spans="1:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M89" s="1"/>
-      <c r="Q89" s="2"/>
-    </row>
-    <row r="90" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" s="10">
-        <v>2019</v>
-      </c>
-      <c r="D90" s="9">
-        <v>2045</v>
-      </c>
-      <c r="M90" s="1"/>
-      <c r="Q90" s="2"/>
-    </row>
-    <row r="91" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C91" s="7">
-        <v>0.08</v>
-      </c>
-      <c r="D91" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="M91" s="1"/>
-      <c r="Q91" s="2"/>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B92" s="5"/>
-      <c r="D92" s="5"/>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B95" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B96" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B97" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B98" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B99" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B100" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="55" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="6"/>
+    </row>
+    <row r="56" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="6"/>
+    </row>
+    <row r="57" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
+  <mergeCells count="3">
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B48:C48"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B97" r:id="rId1" display="https://www.eionet.europa.eu/etcs/etc-atni/products/etc-atni-reports/etc-atni-report-04-2020-costs-of-air-pollution-from-european-industrial-facilities-200820132017" xr:uid="{16A75933-5A33-4E45-B8D7-186EA611B26B}"/>
-  </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>